--- a/Аспекты тестов/Набор тестов для функции delOneLineComment.xlsx
+++ b/Аспекты тестов/Набор тестов для функции delOneLineComment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\Аспекты тестов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Расположения однострочного комментария в строке</t>
-  </si>
-  <si>
-    <t>"int a = 0; // комментарий"</t>
   </si>
   <si>
     <t>Однострочного комментария нет в строке</t>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>"//// int a = 0; комментарий"</t>
+  </si>
+  <si>
+    <t>"int a = 0;// комментарий"</t>
   </si>
 </sst>
 </file>
@@ -833,8 +833,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="7" spans="1:256" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -2672,7 +2672,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3194,7 +3194,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -6284,7 +6284,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="61" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="61" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -7596,10 +7596,10 @@
     </row>
     <row r="6" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7858,10 +7858,10 @@
     </row>
     <row r="7" spans="1:256" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8120,10 +8120,10 @@
     </row>
     <row r="8" spans="1:256" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8382,10 +8382,10 @@
     </row>
     <row r="9" spans="1:256" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8644,42 +8644,42 @@
     </row>
     <row r="10" spans="1:256" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
